--- a/similarities/split_global/harmonic_similarity_timestamps_44.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'G:min7', 'C:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min7', 'D:min7', 'G:7']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.530000', '0:00:23.620000')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:33.150000', '0:00:36.800000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=21.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=33.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.760000', '0:00:27.920000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.420000', '0:01:04.920000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=21.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=60.42']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Ab/7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:05.460000'), ('0:01:14.900000', '0:01:26.120000')]</t>
+          <t>('0:00:54.072000', '0:00:59.053000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:03:44.580000', '0:03:52.160000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=224.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:38.220000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:01:00.761383', '0:01:11.001383')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['E', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:32.260000', '0:01:39.020000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:07.240000', '0:00:14.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:36.900000', '0:01:42.460000'), ('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:49.708684', '0:00:51.763650')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=7.24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=96.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=49.708684</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:39.800000', '0:00:45.400000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+          <t>('0:00:41.895260', '0:00:54.712675')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:04.340000')]</t>
+          <t>('0:00:43.076000', '0:00:50.260000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:08.340000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:32.440000', '0:00:34.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:34.380000', '0:00:38.520000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:29.500000', '0:00:31.640000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:01:11.700000', '0:01:18.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=71.7</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.380000', '0:00:24.380000')]</t>
+          <t>('0:00:01.900000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:03.050000', '0:00:08.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:02.680000', '0:00:03.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.68</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:24.760000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:17.360000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
